--- a/mode6.xlsx
+++ b/mode6.xlsx
@@ -55,6 +55,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-24_20-54" sheetId="46" state="visible" r:id="rId46"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-24_21-58" sheetId="47" state="visible" r:id="rId47"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-26_17-42" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-26_21-06" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-26_21-38" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-26_23-15" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-27_02-59" sheetId="52" state="visible" r:id="rId52"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55336,6 +55340,1312 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Zero__wind</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2898657</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1851</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2265585</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1611</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1005210</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>794</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>853495</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ymsshi-</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>820380</v>
+      </c>
+      <c r="E6" t="n">
+        <v>98.65000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KLTY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>792132</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.34999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>penmawasip</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>781940</v>
+      </c>
+      <c r="E8" t="n">
+        <v>98.22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>743091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>46</v>
+      </c>
+      <c r="D10" t="n">
+        <v>742072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.91</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sume666</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>740898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>46</v>
+      </c>
+      <c r="D12" t="n">
+        <v>737253</v>
+      </c>
+      <c r="E12" t="n">
+        <v>98.06</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Reasongbao</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" t="n">
+        <v>658511</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97.34</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pH0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>605874</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1869</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ukiwa</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>604465</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rycr</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>579214</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VioletPR</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>577524</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HoshizoraYohane</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" t="n">
+        <v>551092</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2006cwo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>530123</v>
+      </c>
+      <c r="E19" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1608</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mamedy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>43</v>
+      </c>
+      <c r="D20" t="n">
+        <v>517445</v>
+      </c>
+      <c r="E20" t="n">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>961</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Shururun</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>43</v>
+      </c>
+      <c r="D21" t="n">
+        <v>463894</v>
+      </c>
+      <c r="E21" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KiteTides</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>460305</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1616</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sirap</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>42</v>
+      </c>
+      <c r="D23" t="n">
+        <v>439174</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1744</v>
+      </c>
+      <c r="G23" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>plody</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>436203</v>
+      </c>
+      <c r="E24" t="n">
+        <v>96.06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" t="n">
+        <v>427924</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1843</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tkdkendo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>423348</v>
+      </c>
+      <c r="E26" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sureisan</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>42</v>
+      </c>
+      <c r="D27" t="n">
+        <v>410607</v>
+      </c>
+      <c r="E27" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Staties</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" t="n">
+        <v>403017</v>
+      </c>
+      <c r="E28" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1323</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>yokkihane</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>41</v>
+      </c>
+      <c r="D29" t="n">
+        <v>393923</v>
+      </c>
+      <c r="E29" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>41</v>
+      </c>
+      <c r="D30" t="n">
+        <v>388547</v>
+      </c>
+      <c r="E30" t="n">
+        <v>96.81999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1672</v>
+      </c>
+      <c r="G30" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>384909</v>
+      </c>
+      <c r="E31" t="n">
+        <v>99.19</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1488</v>
+      </c>
+      <c r="G31" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>41</v>
+      </c>
+      <c r="D32" t="n">
+        <v>383538</v>
+      </c>
+      <c r="E32" t="n">
+        <v>97.20999999999999</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1842</v>
+      </c>
+      <c r="G32" t="n">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>woshihuchengke</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>41</v>
+      </c>
+      <c r="D33" t="n">
+        <v>377734</v>
+      </c>
+      <c r="E33" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Twilight_morning</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>41</v>
+      </c>
+      <c r="D34" t="n">
+        <v>373367</v>
+      </c>
+      <c r="E34" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1984</v>
+      </c>
+      <c r="G34" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FlexibleBeetle</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>41</v>
+      </c>
+      <c r="D35" t="n">
+        <v>365358</v>
+      </c>
+      <c r="E35" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1489</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BiwBiw</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>41</v>
+      </c>
+      <c r="D36" t="n">
+        <v>355702</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Moririnnnn</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" t="n">
+        <v>342909</v>
+      </c>
+      <c r="E37" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G37" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sana5049</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" t="n">
+        <v>334423</v>
+      </c>
+      <c r="E38" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1575</v>
+      </c>
+      <c r="G38" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" t="n">
+        <v>321734</v>
+      </c>
+      <c r="E39" t="n">
+        <v>97.72</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1392</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Starket</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" t="n">
+        <v>316188</v>
+      </c>
+      <c r="E40" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1092</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Zani</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="n">
+        <v>309209</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1583</v>
+      </c>
+      <c r="G41" t="n">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>guiltyghost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" t="n">
+        <v>295882</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1264</v>
+      </c>
+      <c r="G42" t="n">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>39</v>
+      </c>
+      <c r="D43" t="n">
+        <v>293019</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.89</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>i2ebirThz-</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>39</v>
+      </c>
+      <c r="D44" t="n">
+        <v>288798</v>
+      </c>
+      <c r="E44" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1490</v>
+      </c>
+      <c r="G44" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HinjyakuMoyasi</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>39</v>
+      </c>
+      <c r="D45" t="n">
+        <v>269646</v>
+      </c>
+      <c r="E45" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G45" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mas3</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>38</v>
+      </c>
+      <c r="D46" t="n">
+        <v>261838</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="F46" t="n">
+        <v>943</v>
+      </c>
+      <c r="G46" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>soso5671</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>38</v>
+      </c>
+      <c r="D47" t="n">
+        <v>251251</v>
+      </c>
+      <c r="E47" t="n">
+        <v>90.17</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G47" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hoshikuzu15</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>38</v>
+      </c>
+      <c r="D48" t="n">
+        <v>250804</v>
+      </c>
+      <c r="E48" t="n">
+        <v>94.91</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rak_</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>38</v>
+      </c>
+      <c r="D49" t="n">
+        <v>243549</v>
+      </c>
+      <c r="E49" t="n">
+        <v>98.19</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G49" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>38</v>
+      </c>
+      <c r="D50" t="n">
+        <v>242619</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.73999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G50" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>38</v>
+      </c>
+      <c r="D51" t="n">
+        <v>241329</v>
+      </c>
+      <c r="E51" t="n">
+        <v>92.54000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1614</v>
+      </c>
+      <c r="G51" t="n">
+        <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -56635,6 +57945,3924 @@
       </c>
       <c r="G51" t="n">
         <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Zero__wind</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2898657</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1851</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2265585</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1611</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1005210</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>794</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>853495</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ymsshi-</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>820380</v>
+      </c>
+      <c r="E6" t="n">
+        <v>98.65000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KLTY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>792132</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.34999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>penmawasip</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>781940</v>
+      </c>
+      <c r="E8" t="n">
+        <v>98.22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>743091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>46</v>
+      </c>
+      <c r="D10" t="n">
+        <v>742072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.91</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sume666</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>740898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>46</v>
+      </c>
+      <c r="D12" t="n">
+        <v>737253</v>
+      </c>
+      <c r="E12" t="n">
+        <v>98.06</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Reasongbao</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" t="n">
+        <v>658511</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97.34</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pH0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>605874</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1869</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ukiwa</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>604465</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rycr</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>579214</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VioletPR</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>577524</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HoshizoraYohane</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" t="n">
+        <v>551092</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2006cwo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>530123</v>
+      </c>
+      <c r="E19" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1608</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mamedy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>43</v>
+      </c>
+      <c r="D20" t="n">
+        <v>517445</v>
+      </c>
+      <c r="E20" t="n">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>961</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Shururun</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>43</v>
+      </c>
+      <c r="D21" t="n">
+        <v>463894</v>
+      </c>
+      <c r="E21" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KiteTides</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>460305</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1616</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sirap</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>42</v>
+      </c>
+      <c r="D23" t="n">
+        <v>439174</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1744</v>
+      </c>
+      <c r="G23" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>plody</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>436203</v>
+      </c>
+      <c r="E24" t="n">
+        <v>96.06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" t="n">
+        <v>427924</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1843</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tkdkendo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>423348</v>
+      </c>
+      <c r="E26" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sureisan</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>42</v>
+      </c>
+      <c r="D27" t="n">
+        <v>410607</v>
+      </c>
+      <c r="E27" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Staties</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" t="n">
+        <v>403017</v>
+      </c>
+      <c r="E28" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1323</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>yokkihane</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>41</v>
+      </c>
+      <c r="D29" t="n">
+        <v>393923</v>
+      </c>
+      <c r="E29" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>41</v>
+      </c>
+      <c r="D30" t="n">
+        <v>388547</v>
+      </c>
+      <c r="E30" t="n">
+        <v>96.81999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1672</v>
+      </c>
+      <c r="G30" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>384909</v>
+      </c>
+      <c r="E31" t="n">
+        <v>99.19</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1488</v>
+      </c>
+      <c r="G31" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>41</v>
+      </c>
+      <c r="D32" t="n">
+        <v>383785</v>
+      </c>
+      <c r="E32" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1842</v>
+      </c>
+      <c r="G32" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>woshihuchengke</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>41</v>
+      </c>
+      <c r="D33" t="n">
+        <v>377734</v>
+      </c>
+      <c r="E33" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Twilight_morning</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>41</v>
+      </c>
+      <c r="D34" t="n">
+        <v>373367</v>
+      </c>
+      <c r="E34" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1984</v>
+      </c>
+      <c r="G34" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FlexibleBeetle</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>41</v>
+      </c>
+      <c r="D35" t="n">
+        <v>365358</v>
+      </c>
+      <c r="E35" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1489</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BiwBiw</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>41</v>
+      </c>
+      <c r="D36" t="n">
+        <v>355702</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Moririnnnn</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" t="n">
+        <v>342909</v>
+      </c>
+      <c r="E37" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G37" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sana5049</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" t="n">
+        <v>334423</v>
+      </c>
+      <c r="E38" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1575</v>
+      </c>
+      <c r="G38" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" t="n">
+        <v>321734</v>
+      </c>
+      <c r="E39" t="n">
+        <v>97.72</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1392</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Starket</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" t="n">
+        <v>316188</v>
+      </c>
+      <c r="E40" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1092</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Zani</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="n">
+        <v>309209</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1583</v>
+      </c>
+      <c r="G41" t="n">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>guiltyghost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" t="n">
+        <v>295882</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1264</v>
+      </c>
+      <c r="G42" t="n">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>39</v>
+      </c>
+      <c r="D43" t="n">
+        <v>293019</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.89</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>i2ebirThz-</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>39</v>
+      </c>
+      <c r="D44" t="n">
+        <v>288798</v>
+      </c>
+      <c r="E44" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1490</v>
+      </c>
+      <c r="G44" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HinjyakuMoyasi</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>39</v>
+      </c>
+      <c r="D45" t="n">
+        <v>269646</v>
+      </c>
+      <c r="E45" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G45" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mas3</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>38</v>
+      </c>
+      <c r="D46" t="n">
+        <v>261838</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="F46" t="n">
+        <v>943</v>
+      </c>
+      <c r="G46" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>soso5671</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>38</v>
+      </c>
+      <c r="D47" t="n">
+        <v>251251</v>
+      </c>
+      <c r="E47" t="n">
+        <v>90.17</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G47" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hoshikuzu15</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>38</v>
+      </c>
+      <c r="D48" t="n">
+        <v>250804</v>
+      </c>
+      <c r="E48" t="n">
+        <v>94.91</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rak_</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>38</v>
+      </c>
+      <c r="D49" t="n">
+        <v>243549</v>
+      </c>
+      <c r="E49" t="n">
+        <v>98.19</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G49" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>38</v>
+      </c>
+      <c r="D50" t="n">
+        <v>242619</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.73999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G50" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>38</v>
+      </c>
+      <c r="D51" t="n">
+        <v>241329</v>
+      </c>
+      <c r="E51" t="n">
+        <v>92.54000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1614</v>
+      </c>
+      <c r="G51" t="n">
+        <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Zero__wind</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2898657</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1851</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2265585</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1611</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1005210</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>794</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>853495</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ymsshi-</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>820380</v>
+      </c>
+      <c r="E6" t="n">
+        <v>98.65000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KLTY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>792132</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.34999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>penmawasip</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>781940</v>
+      </c>
+      <c r="E8" t="n">
+        <v>98.22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>743091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>46</v>
+      </c>
+      <c r="D10" t="n">
+        <v>742072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.91</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sume666</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>740898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>46</v>
+      </c>
+      <c r="D12" t="n">
+        <v>737639</v>
+      </c>
+      <c r="E12" t="n">
+        <v>98.11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Reasongbao</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" t="n">
+        <v>658511</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97.34</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pH0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>605874</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1869</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ukiwa</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>604465</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rycr</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>579214</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VioletPR</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>577524</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HoshizoraYohane</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" t="n">
+        <v>551092</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2006cwo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>530123</v>
+      </c>
+      <c r="E19" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1608</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mamedy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>43</v>
+      </c>
+      <c r="D20" t="n">
+        <v>517445</v>
+      </c>
+      <c r="E20" t="n">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>961</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Shururun</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>43</v>
+      </c>
+      <c r="D21" t="n">
+        <v>463894</v>
+      </c>
+      <c r="E21" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KiteTides</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>460305</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1616</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sirap</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>42</v>
+      </c>
+      <c r="D23" t="n">
+        <v>439174</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1744</v>
+      </c>
+      <c r="G23" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>plody</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>436203</v>
+      </c>
+      <c r="E24" t="n">
+        <v>96.06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" t="n">
+        <v>427924</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1843</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tkdkendo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>423348</v>
+      </c>
+      <c r="E26" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sureisan</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>42</v>
+      </c>
+      <c r="D27" t="n">
+        <v>410607</v>
+      </c>
+      <c r="E27" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Staties</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" t="n">
+        <v>403017</v>
+      </c>
+      <c r="E28" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1323</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>yokkihane</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>41</v>
+      </c>
+      <c r="D29" t="n">
+        <v>393923</v>
+      </c>
+      <c r="E29" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>41</v>
+      </c>
+      <c r="D30" t="n">
+        <v>388547</v>
+      </c>
+      <c r="E30" t="n">
+        <v>96.81999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1672</v>
+      </c>
+      <c r="G30" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>384909</v>
+      </c>
+      <c r="E31" t="n">
+        <v>99.19</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1488</v>
+      </c>
+      <c r="G31" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>41</v>
+      </c>
+      <c r="D32" t="n">
+        <v>383785</v>
+      </c>
+      <c r="E32" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1842</v>
+      </c>
+      <c r="G32" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>woshihuchengke</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>41</v>
+      </c>
+      <c r="D33" t="n">
+        <v>377734</v>
+      </c>
+      <c r="E33" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Twilight_morning</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>41</v>
+      </c>
+      <c r="D34" t="n">
+        <v>373367</v>
+      </c>
+      <c r="E34" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1984</v>
+      </c>
+      <c r="G34" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FlexibleBeetle</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>41</v>
+      </c>
+      <c r="D35" t="n">
+        <v>365358</v>
+      </c>
+      <c r="E35" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1489</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BiwBiw</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>41</v>
+      </c>
+      <c r="D36" t="n">
+        <v>355702</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Moririnnnn</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" t="n">
+        <v>342909</v>
+      </c>
+      <c r="E37" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G37" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sana5049</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" t="n">
+        <v>334423</v>
+      </c>
+      <c r="E38" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1575</v>
+      </c>
+      <c r="G38" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" t="n">
+        <v>321734</v>
+      </c>
+      <c r="E39" t="n">
+        <v>97.72</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1392</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Starket</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" t="n">
+        <v>316188</v>
+      </c>
+      <c r="E40" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1092</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Zani</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="n">
+        <v>309209</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1583</v>
+      </c>
+      <c r="G41" t="n">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>guiltyghost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" t="n">
+        <v>295882</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1264</v>
+      </c>
+      <c r="G42" t="n">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>39</v>
+      </c>
+      <c r="D43" t="n">
+        <v>293019</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.89</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>i2ebirThz-</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>39</v>
+      </c>
+      <c r="D44" t="n">
+        <v>288798</v>
+      </c>
+      <c r="E44" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1490</v>
+      </c>
+      <c r="G44" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HinjyakuMoyasi</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>39</v>
+      </c>
+      <c r="D45" t="n">
+        <v>269646</v>
+      </c>
+      <c r="E45" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G45" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mas3</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>38</v>
+      </c>
+      <c r="D46" t="n">
+        <v>261838</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="F46" t="n">
+        <v>943</v>
+      </c>
+      <c r="G46" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>soso5671</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>38</v>
+      </c>
+      <c r="D47" t="n">
+        <v>251251</v>
+      </c>
+      <c r="E47" t="n">
+        <v>90.17</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G47" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hoshikuzu15</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>38</v>
+      </c>
+      <c r="D48" t="n">
+        <v>250804</v>
+      </c>
+      <c r="E48" t="n">
+        <v>94.91</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rak_</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>38</v>
+      </c>
+      <c r="D49" t="n">
+        <v>243549</v>
+      </c>
+      <c r="E49" t="n">
+        <v>98.19</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G49" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>38</v>
+      </c>
+      <c r="D50" t="n">
+        <v>242619</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.73999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G50" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>38</v>
+      </c>
+      <c r="D51" t="n">
+        <v>241329</v>
+      </c>
+      <c r="E51" t="n">
+        <v>92.54000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1614</v>
+      </c>
+      <c r="G51" t="n">
+        <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Zero__wind</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2898657</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1851</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2265585</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1611</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1005210</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>794</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>853495</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ymsshi-</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>820380</v>
+      </c>
+      <c r="E6" t="n">
+        <v>98.65000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KLTY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>792132</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.34999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>penmawasip</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>781940</v>
+      </c>
+      <c r="E8" t="n">
+        <v>98.22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>743091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>46</v>
+      </c>
+      <c r="D10" t="n">
+        <v>742072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.91</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sume666</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>740898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>46</v>
+      </c>
+      <c r="D12" t="n">
+        <v>737639</v>
+      </c>
+      <c r="E12" t="n">
+        <v>98.11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Reasongbao</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" t="n">
+        <v>661016</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pH0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>605874</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1869</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ukiwa</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>604465</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rycr</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>579214</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VioletPR</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>577524</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HoshizoraYohane</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" t="n">
+        <v>551092</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2006cwo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>530123</v>
+      </c>
+      <c r="E19" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1608</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mamedy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>43</v>
+      </c>
+      <c r="D20" t="n">
+        <v>517445</v>
+      </c>
+      <c r="E20" t="n">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>961</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Shururun</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>43</v>
+      </c>
+      <c r="D21" t="n">
+        <v>463894</v>
+      </c>
+      <c r="E21" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KiteTides</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>460305</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1616</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sirap</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>42</v>
+      </c>
+      <c r="D23" t="n">
+        <v>439174</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1744</v>
+      </c>
+      <c r="G23" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>plody</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>436203</v>
+      </c>
+      <c r="E24" t="n">
+        <v>96.06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" t="n">
+        <v>427924</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1843</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tkdkendo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>423348</v>
+      </c>
+      <c r="E26" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sureisan</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>42</v>
+      </c>
+      <c r="D27" t="n">
+        <v>410607</v>
+      </c>
+      <c r="E27" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Staties</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" t="n">
+        <v>403017</v>
+      </c>
+      <c r="E28" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1323</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>yokkihane</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>41</v>
+      </c>
+      <c r="D29" t="n">
+        <v>393923</v>
+      </c>
+      <c r="E29" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>41</v>
+      </c>
+      <c r="D30" t="n">
+        <v>388547</v>
+      </c>
+      <c r="E30" t="n">
+        <v>96.81999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1672</v>
+      </c>
+      <c r="G30" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>384909</v>
+      </c>
+      <c r="E31" t="n">
+        <v>99.19</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1488</v>
+      </c>
+      <c r="G31" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>41</v>
+      </c>
+      <c r="D32" t="n">
+        <v>383785</v>
+      </c>
+      <c r="E32" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1842</v>
+      </c>
+      <c r="G32" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>woshihuchengke</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>41</v>
+      </c>
+      <c r="D33" t="n">
+        <v>377734</v>
+      </c>
+      <c r="E33" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Twilight_morning</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>41</v>
+      </c>
+      <c r="D34" t="n">
+        <v>373367</v>
+      </c>
+      <c r="E34" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1984</v>
+      </c>
+      <c r="G34" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FlexibleBeetle</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>41</v>
+      </c>
+      <c r="D35" t="n">
+        <v>365358</v>
+      </c>
+      <c r="E35" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1489</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BiwBiw</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>41</v>
+      </c>
+      <c r="D36" t="n">
+        <v>355702</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Moririnnnn</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" t="n">
+        <v>342909</v>
+      </c>
+      <c r="E37" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G37" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sana5049</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" t="n">
+        <v>334423</v>
+      </c>
+      <c r="E38" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1575</v>
+      </c>
+      <c r="G38" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" t="n">
+        <v>321734</v>
+      </c>
+      <c r="E39" t="n">
+        <v>97.72</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1392</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Starket</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" t="n">
+        <v>316188</v>
+      </c>
+      <c r="E40" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1092</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Zani</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="n">
+        <v>309209</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1583</v>
+      </c>
+      <c r="G41" t="n">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>guiltyghost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" t="n">
+        <v>295882</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1264</v>
+      </c>
+      <c r="G42" t="n">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>39</v>
+      </c>
+      <c r="D43" t="n">
+        <v>293019</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.89</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>i2ebirThz-</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>39</v>
+      </c>
+      <c r="D44" t="n">
+        <v>288798</v>
+      </c>
+      <c r="E44" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1490</v>
+      </c>
+      <c r="G44" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HinjyakuMoyasi</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>39</v>
+      </c>
+      <c r="D45" t="n">
+        <v>269646</v>
+      </c>
+      <c r="E45" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G45" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mas3</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>38</v>
+      </c>
+      <c r="D46" t="n">
+        <v>261838</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="F46" t="n">
+        <v>943</v>
+      </c>
+      <c r="G46" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>soso5671</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>38</v>
+      </c>
+      <c r="D47" t="n">
+        <v>251251</v>
+      </c>
+      <c r="E47" t="n">
+        <v>90.17</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G47" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hoshikuzu15</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>38</v>
+      </c>
+      <c r="D48" t="n">
+        <v>250804</v>
+      </c>
+      <c r="E48" t="n">
+        <v>94.91</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rak_</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>38</v>
+      </c>
+      <c r="D49" t="n">
+        <v>243549</v>
+      </c>
+      <c r="E49" t="n">
+        <v>98.19</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G49" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>38</v>
+      </c>
+      <c r="D50" t="n">
+        <v>242619</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.73999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G50" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>38</v>
+      </c>
+      <c r="D51" t="n">
+        <v>241329</v>
+      </c>
+      <c r="E51" t="n">
+        <v>92.54000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1614</v>
+      </c>
+      <c r="G51" t="n">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/mode6.xlsx
+++ b/mode6.xlsx
@@ -59,6 +59,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-26_21-38" sheetId="50" state="visible" r:id="rId50"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-26_23-15" sheetId="51" state="visible" r:id="rId51"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-27_02-59" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-27_21-08" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-28_02-33" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-28_10-26" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_6_2025-06-28_12-01" sheetId="56" state="visible" r:id="rId56"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -61870,6 +61874,5230 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Zero__wind</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2898657</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1851</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2265585</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1611</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1005210</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>794</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>853495</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ymsshi-</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>820380</v>
+      </c>
+      <c r="E6" t="n">
+        <v>98.65000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KLTY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>792132</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.34999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>penmawasip</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>781940</v>
+      </c>
+      <c r="E8" t="n">
+        <v>98.22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>743091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>46</v>
+      </c>
+      <c r="D10" t="n">
+        <v>742072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.91</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sume666</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>740898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>46</v>
+      </c>
+      <c r="D12" t="n">
+        <v>737639</v>
+      </c>
+      <c r="E12" t="n">
+        <v>98.11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Reasongbao</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" t="n">
+        <v>661016</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pH0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>605874</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1869</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ukiwa</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>604465</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rycr</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>579214</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VioletPR</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>577524</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HoshizoraYohane</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" t="n">
+        <v>551092</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2006cwo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>530123</v>
+      </c>
+      <c r="E19" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1608</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mamedy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>43</v>
+      </c>
+      <c r="D20" t="n">
+        <v>517445</v>
+      </c>
+      <c r="E20" t="n">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>961</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Shururun</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>43</v>
+      </c>
+      <c r="D21" t="n">
+        <v>463894</v>
+      </c>
+      <c r="E21" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KiteTides</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>460305</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1616</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sirap</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>42</v>
+      </c>
+      <c r="D23" t="n">
+        <v>439174</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1744</v>
+      </c>
+      <c r="G23" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>plody</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>436203</v>
+      </c>
+      <c r="E24" t="n">
+        <v>96.06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" t="n">
+        <v>427924</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1843</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tkdkendo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>423348</v>
+      </c>
+      <c r="E26" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sureisan</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>42</v>
+      </c>
+      <c r="D27" t="n">
+        <v>410607</v>
+      </c>
+      <c r="E27" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Staties</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" t="n">
+        <v>403017</v>
+      </c>
+      <c r="E28" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1323</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>yokkihane</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>41</v>
+      </c>
+      <c r="D29" t="n">
+        <v>393923</v>
+      </c>
+      <c r="E29" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>41</v>
+      </c>
+      <c r="D30" t="n">
+        <v>388547</v>
+      </c>
+      <c r="E30" t="n">
+        <v>96.81999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1672</v>
+      </c>
+      <c r="G30" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>384909</v>
+      </c>
+      <c r="E31" t="n">
+        <v>99.19</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1488</v>
+      </c>
+      <c r="G31" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>41</v>
+      </c>
+      <c r="D32" t="n">
+        <v>384454</v>
+      </c>
+      <c r="E32" t="n">
+        <v>97.22</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1842</v>
+      </c>
+      <c r="G32" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>woshihuchengke</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>41</v>
+      </c>
+      <c r="D33" t="n">
+        <v>377734</v>
+      </c>
+      <c r="E33" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Twilight_morning</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>41</v>
+      </c>
+      <c r="D34" t="n">
+        <v>373367</v>
+      </c>
+      <c r="E34" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1984</v>
+      </c>
+      <c r="G34" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FlexibleBeetle</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>41</v>
+      </c>
+      <c r="D35" t="n">
+        <v>365358</v>
+      </c>
+      <c r="E35" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1489</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BiwBiw</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>41</v>
+      </c>
+      <c r="D36" t="n">
+        <v>355702</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Moririnnnn</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" t="n">
+        <v>342909</v>
+      </c>
+      <c r="E37" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G37" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sana5049</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" t="n">
+        <v>334423</v>
+      </c>
+      <c r="E38" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1575</v>
+      </c>
+      <c r="G38" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" t="n">
+        <v>321734</v>
+      </c>
+      <c r="E39" t="n">
+        <v>97.72</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1392</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Starket</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" t="n">
+        <v>316188</v>
+      </c>
+      <c r="E40" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1092</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Zani</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="n">
+        <v>309209</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1583</v>
+      </c>
+      <c r="G41" t="n">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>guiltyghost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" t="n">
+        <v>295882</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1264</v>
+      </c>
+      <c r="G42" t="n">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>39</v>
+      </c>
+      <c r="D43" t="n">
+        <v>293019</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.89</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>i2ebirThz-</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>39</v>
+      </c>
+      <c r="D44" t="n">
+        <v>288798</v>
+      </c>
+      <c r="E44" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1490</v>
+      </c>
+      <c r="G44" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HinjyakuMoyasi</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>39</v>
+      </c>
+      <c r="D45" t="n">
+        <v>269646</v>
+      </c>
+      <c r="E45" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G45" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mas3</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>38</v>
+      </c>
+      <c r="D46" t="n">
+        <v>261838</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="F46" t="n">
+        <v>943</v>
+      </c>
+      <c r="G46" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>soso5671</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>38</v>
+      </c>
+      <c r="D47" t="n">
+        <v>251251</v>
+      </c>
+      <c r="E47" t="n">
+        <v>90.17</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G47" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hoshikuzu15</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>38</v>
+      </c>
+      <c r="D48" t="n">
+        <v>250804</v>
+      </c>
+      <c r="E48" t="n">
+        <v>94.91</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rak_</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>38</v>
+      </c>
+      <c r="D49" t="n">
+        <v>243549</v>
+      </c>
+      <c r="E49" t="n">
+        <v>98.19</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G49" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>38</v>
+      </c>
+      <c r="D50" t="n">
+        <v>242619</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.73999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G50" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>38</v>
+      </c>
+      <c r="D51" t="n">
+        <v>241329</v>
+      </c>
+      <c r="E51" t="n">
+        <v>92.54000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1614</v>
+      </c>
+      <c r="G51" t="n">
+        <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Zero__wind</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2899175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1851</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7977</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2265585</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1611</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1005210</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>794</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>853495</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ymsshi-</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>820380</v>
+      </c>
+      <c r="E6" t="n">
+        <v>98.65000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KLTY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>792132</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.34999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>penmawasip</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>781940</v>
+      </c>
+      <c r="E8" t="n">
+        <v>98.22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>743091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>46</v>
+      </c>
+      <c r="D10" t="n">
+        <v>742072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.91</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sume666</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>740898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>46</v>
+      </c>
+      <c r="D12" t="n">
+        <v>737639</v>
+      </c>
+      <c r="E12" t="n">
+        <v>98.11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Reasongbao</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" t="n">
+        <v>661016</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pH0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>609455</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1869</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ukiwa</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>604465</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rycr</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>579214</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VioletPR</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>577524</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HoshizoraYohane</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" t="n">
+        <v>551092</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2006cwo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>530123</v>
+      </c>
+      <c r="E19" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1608</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mamedy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>43</v>
+      </c>
+      <c r="D20" t="n">
+        <v>517445</v>
+      </c>
+      <c r="E20" t="n">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>961</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Shururun</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>43</v>
+      </c>
+      <c r="D21" t="n">
+        <v>463894</v>
+      </c>
+      <c r="E21" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KiteTides</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>460305</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1616</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sirap</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>42</v>
+      </c>
+      <c r="D23" t="n">
+        <v>439174</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1744</v>
+      </c>
+      <c r="G23" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>plody</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>436203</v>
+      </c>
+      <c r="E24" t="n">
+        <v>96.06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" t="n">
+        <v>427924</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1843</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tkdkendo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>423348</v>
+      </c>
+      <c r="E26" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sureisan</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>42</v>
+      </c>
+      <c r="D27" t="n">
+        <v>410607</v>
+      </c>
+      <c r="E27" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Staties</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" t="n">
+        <v>403017</v>
+      </c>
+      <c r="E28" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1323</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>yokkihane</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>41</v>
+      </c>
+      <c r="D29" t="n">
+        <v>393923</v>
+      </c>
+      <c r="E29" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>41</v>
+      </c>
+      <c r="D30" t="n">
+        <v>388931</v>
+      </c>
+      <c r="E30" t="n">
+        <v>96.81999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1672</v>
+      </c>
+      <c r="G30" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>384909</v>
+      </c>
+      <c r="E31" t="n">
+        <v>99.19</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1488</v>
+      </c>
+      <c r="G31" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>41</v>
+      </c>
+      <c r="D32" t="n">
+        <v>384454</v>
+      </c>
+      <c r="E32" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1842</v>
+      </c>
+      <c r="G32" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>woshihuchengke</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>41</v>
+      </c>
+      <c r="D33" t="n">
+        <v>377734</v>
+      </c>
+      <c r="E33" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Twilight_morning</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>41</v>
+      </c>
+      <c r="D34" t="n">
+        <v>373367</v>
+      </c>
+      <c r="E34" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1984</v>
+      </c>
+      <c r="G34" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FlexibleBeetle</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>41</v>
+      </c>
+      <c r="D35" t="n">
+        <v>365358</v>
+      </c>
+      <c r="E35" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1489</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BiwBiw</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>41</v>
+      </c>
+      <c r="D36" t="n">
+        <v>355702</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Moririnnnn</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" t="n">
+        <v>342909</v>
+      </c>
+      <c r="E37" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G37" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sana5049</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" t="n">
+        <v>334423</v>
+      </c>
+      <c r="E38" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1575</v>
+      </c>
+      <c r="G38" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" t="n">
+        <v>321734</v>
+      </c>
+      <c r="E39" t="n">
+        <v>97.72</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1392</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Starket</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" t="n">
+        <v>316188</v>
+      </c>
+      <c r="E40" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1092</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Zani</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="n">
+        <v>309209</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1583</v>
+      </c>
+      <c r="G41" t="n">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>guiltyghost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" t="n">
+        <v>295882</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1264</v>
+      </c>
+      <c r="G42" t="n">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>39</v>
+      </c>
+      <c r="D43" t="n">
+        <v>293019</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.89</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>i2ebirThz-</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>39</v>
+      </c>
+      <c r="D44" t="n">
+        <v>288798</v>
+      </c>
+      <c r="E44" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1490</v>
+      </c>
+      <c r="G44" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HinjyakuMoyasi</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>39</v>
+      </c>
+      <c r="D45" t="n">
+        <v>269646</v>
+      </c>
+      <c r="E45" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G45" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mas3</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>38</v>
+      </c>
+      <c r="D46" t="n">
+        <v>261838</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="F46" t="n">
+        <v>943</v>
+      </c>
+      <c r="G46" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>soso5671</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>38</v>
+      </c>
+      <c r="D47" t="n">
+        <v>251251</v>
+      </c>
+      <c r="E47" t="n">
+        <v>90.17</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G47" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hoshikuzu15</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>38</v>
+      </c>
+      <c r="D48" t="n">
+        <v>250804</v>
+      </c>
+      <c r="E48" t="n">
+        <v>94.91</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rak_</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>38</v>
+      </c>
+      <c r="D49" t="n">
+        <v>243549</v>
+      </c>
+      <c r="E49" t="n">
+        <v>98.19</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G49" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>38</v>
+      </c>
+      <c r="D50" t="n">
+        <v>242619</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.73999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G50" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>38</v>
+      </c>
+      <c r="D51" t="n">
+        <v>241329</v>
+      </c>
+      <c r="E51" t="n">
+        <v>92.54000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1614</v>
+      </c>
+      <c r="G51" t="n">
+        <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Zero__wind</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2899175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1851</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7977</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2265585</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1611</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1005210</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>794</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>853495</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ymsshi-</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>820380</v>
+      </c>
+      <c r="E6" t="n">
+        <v>98.65000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KLTY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>792132</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.34999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>penmawasip</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>781940</v>
+      </c>
+      <c r="E8" t="n">
+        <v>98.22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>743091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>46</v>
+      </c>
+      <c r="D10" t="n">
+        <v>742072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.91</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sume666</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>740898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>46</v>
+      </c>
+      <c r="D12" t="n">
+        <v>737639</v>
+      </c>
+      <c r="E12" t="n">
+        <v>98.11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Reasongbao</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" t="n">
+        <v>661016</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pH0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>609455</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1869</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ukiwa</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>604465</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rycr</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>579214</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VioletPR</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>577524</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HoshizoraYohane</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" t="n">
+        <v>551092</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2006cwo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>530123</v>
+      </c>
+      <c r="E19" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1608</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mamedy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>43</v>
+      </c>
+      <c r="D20" t="n">
+        <v>517445</v>
+      </c>
+      <c r="E20" t="n">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>961</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Shururun</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>43</v>
+      </c>
+      <c r="D21" t="n">
+        <v>463894</v>
+      </c>
+      <c r="E21" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KiteTides</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>460305</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1616</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sirap</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>42</v>
+      </c>
+      <c r="D23" t="n">
+        <v>439174</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1744</v>
+      </c>
+      <c r="G23" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>plody</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>436203</v>
+      </c>
+      <c r="E24" t="n">
+        <v>96.06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" t="n">
+        <v>427924</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1843</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tkdkendo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>423348</v>
+      </c>
+      <c r="E26" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sureisan</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>42</v>
+      </c>
+      <c r="D27" t="n">
+        <v>410607</v>
+      </c>
+      <c r="E27" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Staties</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" t="n">
+        <v>403017</v>
+      </c>
+      <c r="E28" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1323</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>yokkihane</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>41</v>
+      </c>
+      <c r="D29" t="n">
+        <v>393923</v>
+      </c>
+      <c r="E29" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>41</v>
+      </c>
+      <c r="D30" t="n">
+        <v>388931</v>
+      </c>
+      <c r="E30" t="n">
+        <v>96.81999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1672</v>
+      </c>
+      <c r="G30" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>384909</v>
+      </c>
+      <c r="E31" t="n">
+        <v>99.19</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1488</v>
+      </c>
+      <c r="G31" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>41</v>
+      </c>
+      <c r="D32" t="n">
+        <v>384454</v>
+      </c>
+      <c r="E32" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1842</v>
+      </c>
+      <c r="G32" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>woshihuchengke</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>41</v>
+      </c>
+      <c r="D33" t="n">
+        <v>377734</v>
+      </c>
+      <c r="E33" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Twilight_morning</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>41</v>
+      </c>
+      <c r="D34" t="n">
+        <v>373367</v>
+      </c>
+      <c r="E34" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1984</v>
+      </c>
+      <c r="G34" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FlexibleBeetle</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>41</v>
+      </c>
+      <c r="D35" t="n">
+        <v>365358</v>
+      </c>
+      <c r="E35" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1489</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BiwBiw</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>41</v>
+      </c>
+      <c r="D36" t="n">
+        <v>355702</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Moririnnnn</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" t="n">
+        <v>342909</v>
+      </c>
+      <c r="E37" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G37" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sana5049</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" t="n">
+        <v>334423</v>
+      </c>
+      <c r="E38" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1575</v>
+      </c>
+      <c r="G38" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" t="n">
+        <v>321734</v>
+      </c>
+      <c r="E39" t="n">
+        <v>97.72</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1392</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Starket</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" t="n">
+        <v>316188</v>
+      </c>
+      <c r="E40" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1092</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Zani</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="n">
+        <v>309209</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1583</v>
+      </c>
+      <c r="G41" t="n">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>guiltyghost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" t="n">
+        <v>295882</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1264</v>
+      </c>
+      <c r="G42" t="n">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>39</v>
+      </c>
+      <c r="D43" t="n">
+        <v>293019</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.89</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>i2ebirThz-</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>39</v>
+      </c>
+      <c r="D44" t="n">
+        <v>288798</v>
+      </c>
+      <c r="E44" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1490</v>
+      </c>
+      <c r="G44" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HinjyakuMoyasi</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>39</v>
+      </c>
+      <c r="D45" t="n">
+        <v>269646</v>
+      </c>
+      <c r="E45" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G45" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mas3</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>38</v>
+      </c>
+      <c r="D46" t="n">
+        <v>261838</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="F46" t="n">
+        <v>943</v>
+      </c>
+      <c r="G46" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>soso5671</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>38</v>
+      </c>
+      <c r="D47" t="n">
+        <v>251251</v>
+      </c>
+      <c r="E47" t="n">
+        <v>90.17</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G47" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hoshikuzu15</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>38</v>
+      </c>
+      <c r="D48" t="n">
+        <v>250804</v>
+      </c>
+      <c r="E48" t="n">
+        <v>94.91</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rak_</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>38</v>
+      </c>
+      <c r="D49" t="n">
+        <v>243549</v>
+      </c>
+      <c r="E49" t="n">
+        <v>98.27</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G49" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>38</v>
+      </c>
+      <c r="D50" t="n">
+        <v>242619</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.73999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G50" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>38</v>
+      </c>
+      <c r="D51" t="n">
+        <v>241329</v>
+      </c>
+      <c r="E51" t="n">
+        <v>92.54000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1614</v>
+      </c>
+      <c r="G51" t="n">
+        <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Zero__wind</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2899175</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1851</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7977</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2265585</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1611</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1005210</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>794</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JisusMP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>853495</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ymsshi-</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>820380</v>
+      </c>
+      <c r="E6" t="n">
+        <v>98.65000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KLTY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>792132</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.34999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>penmawasip</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>781940</v>
+      </c>
+      <c r="E8" t="n">
+        <v>98.22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>743091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>46</v>
+      </c>
+      <c r="D10" t="n">
+        <v>742072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.91</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sume666</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>740898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>46</v>
+      </c>
+      <c r="D12" t="n">
+        <v>737639</v>
+      </c>
+      <c r="E12" t="n">
+        <v>98.11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Reasongbao</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" t="n">
+        <v>661016</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pH0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>609455</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1869</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ukiwa</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>604465</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rycr</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>579214</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VioletPR</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>577524</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HoshizoraYohane</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" t="n">
+        <v>551092</v>
+      </c>
+      <c r="E18" t="n">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2006cwo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>530123</v>
+      </c>
+      <c r="E19" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1608</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mamedy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>43</v>
+      </c>
+      <c r="D20" t="n">
+        <v>517445</v>
+      </c>
+      <c r="E20" t="n">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>961</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Shururun</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>43</v>
+      </c>
+      <c r="D21" t="n">
+        <v>463894</v>
+      </c>
+      <c r="E21" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KiteTides</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>460305</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1616</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sirap</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>42</v>
+      </c>
+      <c r="D23" t="n">
+        <v>439174</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1744</v>
+      </c>
+      <c r="G23" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>plody</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>436203</v>
+      </c>
+      <c r="E24" t="n">
+        <v>96.06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hetatis</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" t="n">
+        <v>427924</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1843</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tkdkendo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>423348</v>
+      </c>
+      <c r="E26" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sureisan</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>42</v>
+      </c>
+      <c r="D27" t="n">
+        <v>410607</v>
+      </c>
+      <c r="E27" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Staties</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" t="n">
+        <v>403017</v>
+      </c>
+      <c r="E28" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1323</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>yokkihane</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>41</v>
+      </c>
+      <c r="D29" t="n">
+        <v>393923</v>
+      </c>
+      <c r="E29" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>niniin</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>41</v>
+      </c>
+      <c r="D30" t="n">
+        <v>388931</v>
+      </c>
+      <c r="E30" t="n">
+        <v>96.81999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1672</v>
+      </c>
+      <c r="G30" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>reonalll</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>384909</v>
+      </c>
+      <c r="E31" t="n">
+        <v>99.19</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1488</v>
+      </c>
+      <c r="G31" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aaaa123</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>41</v>
+      </c>
+      <c r="D32" t="n">
+        <v>384454</v>
+      </c>
+      <c r="E32" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1842</v>
+      </c>
+      <c r="G32" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>woshihuchengke</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>41</v>
+      </c>
+      <c r="D33" t="n">
+        <v>377734</v>
+      </c>
+      <c r="E33" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Twilight_morning</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>41</v>
+      </c>
+      <c r="D34" t="n">
+        <v>373367</v>
+      </c>
+      <c r="E34" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1984</v>
+      </c>
+      <c r="G34" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FlexibleBeetle</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>41</v>
+      </c>
+      <c r="D35" t="n">
+        <v>365358</v>
+      </c>
+      <c r="E35" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1489</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BiwBiw</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>41</v>
+      </c>
+      <c r="D36" t="n">
+        <v>355702</v>
+      </c>
+      <c r="E36" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Moririnnnn</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" t="n">
+        <v>342909</v>
+      </c>
+      <c r="E37" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G37" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sana5049</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" t="n">
+        <v>334423</v>
+      </c>
+      <c r="E38" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1575</v>
+      </c>
+      <c r="G38" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Kurenia</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" t="n">
+        <v>321734</v>
+      </c>
+      <c r="E39" t="n">
+        <v>97.72</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1392</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Starket</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" t="n">
+        <v>316188</v>
+      </c>
+      <c r="E40" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1092</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Zani</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="n">
+        <v>309209</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1583</v>
+      </c>
+      <c r="G41" t="n">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>guiltyghost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" t="n">
+        <v>295882</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1264</v>
+      </c>
+      <c r="G42" t="n">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Koyuki-</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>39</v>
+      </c>
+      <c r="D43" t="n">
+        <v>293019</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.89</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>i2ebirThz-</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>39</v>
+      </c>
+      <c r="D44" t="n">
+        <v>288798</v>
+      </c>
+      <c r="E44" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1490</v>
+      </c>
+      <c r="G44" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HinjyakuMoyasi</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>39</v>
+      </c>
+      <c r="D45" t="n">
+        <v>269646</v>
+      </c>
+      <c r="E45" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1492</v>
+      </c>
+      <c r="G45" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mas3</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>38</v>
+      </c>
+      <c r="D46" t="n">
+        <v>261838</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="F46" t="n">
+        <v>943</v>
+      </c>
+      <c r="G46" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>soso5671</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>38</v>
+      </c>
+      <c r="D47" t="n">
+        <v>251251</v>
+      </c>
+      <c r="E47" t="n">
+        <v>90.17</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G47" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hoshikuzu15</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>38</v>
+      </c>
+      <c r="D48" t="n">
+        <v>250804</v>
+      </c>
+      <c r="E48" t="n">
+        <v>94.91</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rak_</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>38</v>
+      </c>
+      <c r="D49" t="n">
+        <v>243549</v>
+      </c>
+      <c r="E49" t="n">
+        <v>98.19</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G49" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>38</v>
+      </c>
+      <c r="D50" t="n">
+        <v>242619</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.73999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G50" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>38</v>
+      </c>
+      <c r="D51" t="n">
+        <v>241329</v>
+      </c>
+      <c r="E51" t="n">
+        <v>92.54000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1614</v>
+      </c>
+      <c r="G51" t="n">
+        <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
